--- a/Bibsam_tidskriftslistor/scifree_data_aip.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_aip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="108">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -166,6 +166,183 @@
   </si>
   <si>
     <t>Hybrid</t>
+  </si>
+  <si>
+    <t>1551-7616</t>
+  </si>
+  <si>
+    <t>1943-2909</t>
+  </si>
+  <si>
+    <t>1559-4106</t>
+  </si>
+  <si>
+    <t>2327-2244</t>
+  </si>
+  <si>
+    <t>1941-7012</t>
+  </si>
+  <si>
+    <t>1520-8516</t>
+  </si>
+  <si>
+    <t>1520-8559</t>
+  </si>
+  <si>
+    <t>2166-2754</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1945-0699</t>
+  </si>
+  <si>
+    <t>1520-8575</t>
+  </si>
+  <si>
+    <t>1943-4928</t>
+  </si>
+  <si>
+    <t>AIP Conference Proceedings</t>
+  </si>
+  <si>
+    <t>American Journal of Physics</t>
+  </si>
+  <si>
+    <t>Biointerphases</t>
+  </si>
+  <si>
+    <t>Chinese Journal of Chemical Physics</t>
+  </si>
+  <si>
+    <t>Journal of Renewable and Sustainable Energy</t>
+  </si>
+  <si>
+    <t>Journal of Rheology</t>
+  </si>
+  <si>
+    <t>Journal of Vacuum Science &amp; Technology A</t>
+  </si>
+  <si>
+    <t>Journal of Vacuum Science &amp; Technology B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIA: Pacific International Conference on Applications of Lasers and Optics  </t>
+  </si>
+  <si>
+    <t>Physics Today</t>
+  </si>
+  <si>
+    <t>Surface Science Spectra</t>
+  </si>
+  <si>
+    <t>Journal of the Acoustical Society of America</t>
+  </si>
+  <si>
+    <t>The Physics Teacher</t>
+  </si>
+  <si>
+    <t>0094-243X</t>
+  </si>
+  <si>
+    <t>0002-9505</t>
+  </si>
+  <si>
+    <t>0003-6951</t>
+  </si>
+  <si>
+    <t>1934-8630</t>
+  </si>
+  <si>
+    <t>1054-1500</t>
+  </si>
+  <si>
+    <t>1674-0068</t>
+  </si>
+  <si>
+    <t>0021-8979</t>
+  </si>
+  <si>
+    <t>0022-2488</t>
+  </si>
+  <si>
+    <t>0047-2689</t>
+  </si>
+  <si>
+    <t>0148-6055</t>
+  </si>
+  <si>
+    <t>0734-2101</t>
+  </si>
+  <si>
+    <t>2166-2746</t>
+  </si>
+  <si>
+    <t>1063-777X</t>
+  </si>
+  <si>
+    <t>0031-9228</t>
+  </si>
+  <si>
+    <t>1070-6631</t>
+  </si>
+  <si>
+    <t>1070-664X</t>
+  </si>
+  <si>
+    <t>0034-6748</t>
+  </si>
+  <si>
+    <t>1055-5269</t>
+  </si>
+  <si>
+    <t>0021-9606</t>
+  </si>
+  <si>
+    <t>0001-4966</t>
+  </si>
+  <si>
+    <t>0031-921X</t>
+  </si>
+  <si>
+    <t>https://aip.scitation.org/toc/apc/current</t>
+  </si>
+  <si>
+    <t>https://aapt.scitation.org/toc/ajp/current</t>
+  </si>
+  <si>
+    <t>https://avs.scitation.org/toc/bip/current</t>
+  </si>
+  <si>
+    <t>https://cps.scitation.org/toc/cjp/current</t>
+  </si>
+  <si>
+    <t>https://aip.scitation.org/toc/rse/current</t>
+  </si>
+  <si>
+    <t>https://sor.scitation.org/toc/jor/current</t>
+  </si>
+  <si>
+    <t>https://avs.scitation.org/toc/jva/current</t>
+  </si>
+  <si>
+    <t>https://avs.scitation.org/toc/jvb/current</t>
+  </si>
+  <si>
+    <t>https://lia.scitation.org/toc/pic/current</t>
+  </si>
+  <si>
+    <t>https://physicstoday.scitation.org/toc/pto/current</t>
+  </si>
+  <si>
+    <t>https://avs.scitation.org/toc/sss/current</t>
+  </si>
+  <si>
+    <t>https://asa.scitation.org/toc/jas/current</t>
+  </si>
+  <si>
+    <t>https://aapt.scitation.org/toc/pte/current</t>
   </si>
 </sst>
 </file>
@@ -217,7 +394,61 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -228,6 +459,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G27" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G27"/>
+  <sortState ref="A2:G27">
+    <sortCondition ref="D1:D27"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Imprint"/>
+    <tableColumn id="2" name="ISSN Electronic"/>
+    <tableColumn id="3" name="ISSN Print"/>
+    <tableColumn id="4" name="Journal Name"/>
+    <tableColumn id="5" name="JournalURL"/>
+    <tableColumn id="6" name="Publishing model"/>
+    <tableColumn id="7" name="CC License options"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,20 +743,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -529,58 +781,61 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -589,18 +844,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -609,38 +864,38 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -649,18 +904,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
@@ -669,38 +927,41 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
@@ -709,18 +970,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>48</v>
@@ -729,18 +993,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
@@ -749,18 +1013,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -769,28 +1036,306 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
         <v>48</v>
       </c>
       <c r="G14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_aip.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_aip.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="108">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -394,43 +394,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -462,7 +426,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G27" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G27" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:G27"/>
   <sortState ref="A2:G27">
     <sortCondition ref="D1:D27"/>
@@ -745,7 +709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -797,6 +763,9 @@
       <c r="E2" t="s">
         <v>95</v>
       </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
@@ -817,6 +786,9 @@
       <c r="E3" t="s">
         <v>96</v>
       </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
@@ -880,6 +852,9 @@
       <c r="E6" t="s">
         <v>97</v>
       </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" t="s">
         <v>34</v>
       </c>
@@ -943,6 +918,9 @@
       <c r="E9" t="s">
         <v>98</v>
       </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
       <c r="G9" t="s">
         <v>34</v>
       </c>
@@ -1075,6 +1053,9 @@
       <c r="E15" t="s">
         <v>99</v>
       </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
       <c r="G15" t="s">
         <v>34</v>
       </c>
@@ -1095,6 +1076,9 @@
       <c r="E16" t="s">
         <v>100</v>
       </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
       <c r="G16" t="s">
         <v>34</v>
       </c>
@@ -1115,6 +1099,9 @@
       <c r="E17" t="s">
         <v>106</v>
       </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
       <c r="G17" t="s">
         <v>34</v>
       </c>
@@ -1135,6 +1122,9 @@
       <c r="E18" t="s">
         <v>101</v>
       </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
       <c r="G18" t="s">
         <v>34</v>
       </c>
@@ -1155,6 +1145,9 @@
       <c r="E19" t="s">
         <v>102</v>
       </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
       <c r="G19" t="s">
         <v>34</v>
       </c>
@@ -1175,6 +1168,9 @@
       <c r="E20" t="s">
         <v>103</v>
       </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
       <c r="G20" t="s">
         <v>34</v>
       </c>
@@ -1264,6 +1260,9 @@
       <c r="E24" t="s">
         <v>104</v>
       </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
       <c r="G24" t="s">
         <v>34</v>
       </c>
@@ -1307,6 +1306,9 @@
       <c r="E26" t="s">
         <v>105</v>
       </c>
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
       <c r="G26" t="s">
         <v>34</v>
       </c>
@@ -1326,6 +1328,9 @@
       </c>
       <c r="E27" t="s">
         <v>107</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>

--- a/Bibsam_tidskriftslistor/scifree_data_aip.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_aip.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -195,9 +195,6 @@
     <t/>
   </si>
   <si>
-    <t>1945-0699</t>
-  </si>
-  <si>
     <t>1520-8575</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t xml:space="preserve">LIA: Pacific International Conference on Applications of Lasers and Optics  </t>
   </si>
   <si>
-    <t>Physics Today</t>
-  </si>
-  <si>
     <t>Surface Science Spectra</t>
   </si>
   <si>
@@ -282,9 +276,6 @@
     <t>1063-777X</t>
   </si>
   <si>
-    <t>0031-9228</t>
-  </si>
-  <si>
     <t>1070-6631</t>
   </si>
   <si>
@@ -333,9 +324,6 @@
     <t>https://lia.scitation.org/toc/pic/current</t>
   </si>
   <si>
-    <t>https://physicstoday.scitation.org/toc/pto/current</t>
-  </si>
-  <si>
     <t>https://avs.scitation.org/toc/sss/current</t>
   </si>
   <si>
@@ -343,6 +331,15 @@
   </si>
   <si>
     <t>https://aapt.scitation.org/toc/pte/current</t>
+  </si>
+  <si>
+    <t>2639-0213</t>
+  </si>
+  <si>
+    <t>AVS Quantum Science</t>
+  </si>
+  <si>
+    <t>https://avs.scitation.org/journal/aqs</t>
   </si>
 </sst>
 </file>
@@ -366,15 +363,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -382,19 +385,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -426,7 +490,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G27" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G27" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:G27"/>
   <sortState ref="A2:G27">
     <sortCondition ref="D1:D27"/>
@@ -709,16 +773,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -755,13 +817,13 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
         <v>48</v>
@@ -778,13 +840,13 @@
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -801,7 +863,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -837,25 +899,23 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -863,14 +923,17 @@
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -884,16 +947,13 @@
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
@@ -906,17 +966,17 @@
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
-        <v>52</v>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -929,17 +989,17 @@
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
+      <c r="B10" t="s">
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
@@ -953,16 +1013,16 @@
         <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
         <v>48</v>
@@ -976,13 +1036,16 @@
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
@@ -996,16 +1059,13 @@
         <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -1019,16 +1079,16 @@
         <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>48</v>
@@ -1041,17 +1101,17 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>53</v>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
@@ -1065,16 +1125,16 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -1088,16 +1148,16 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
         <v>48</v>
@@ -1111,16 +1171,16 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -1134,16 +1194,16 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
@@ -1157,16 +1217,16 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
         <v>48</v>
@@ -1179,17 +1239,17 @@
       <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
+      <c r="B21" t="s">
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
         <v>48</v>
@@ -1203,16 +1263,16 @@
         <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -1226,44 +1286,44 @@
         <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1275,7 +1335,7 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -1295,16 +1355,16 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
         <v>48</v>
@@ -1318,16 +1378,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
         <v>48</v>
@@ -1337,6 +1397,12 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D23 D25:D27">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Bibsam_tidskriftslistor/scifree_data_aip.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_aip.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_2B03468B9C724D3C580A46961041475BE368F8E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05D34F70-C188-45BD-8BF9-608F2A74DBE9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="111">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -126,45 +127,6 @@
     <t>CC-BY</t>
   </si>
   <si>
-    <t>https://aip.scitation.org/journal/apl</t>
-  </si>
-  <si>
-    <t>http://aip.scitation.org/journal/are</t>
-  </si>
-  <si>
-    <t>http://aip.scitation.org/journal/bmf</t>
-  </si>
-  <si>
-    <t>http://aip.scitation.org/journal/cha</t>
-  </si>
-  <si>
-    <t>http://aip.scitation.org/journal/jap</t>
-  </si>
-  <si>
-    <t>http://aip.scitation.org/journal/jcp</t>
-  </si>
-  <si>
-    <t>http://lia.scitation.org/journal/jla</t>
-  </si>
-  <si>
-    <t>http://aip.scitation.org/journal/jmp</t>
-  </si>
-  <si>
-    <t>http://aip.scitation.org/journal/jpr</t>
-  </si>
-  <si>
-    <t>http://aip.scitation.org/journal/ltp</t>
-  </si>
-  <si>
-    <t>http://aip.scitation.org/journal/phf</t>
-  </si>
-  <si>
-    <t>http://aip.scitation.org/journal/php</t>
-  </si>
-  <si>
-    <t>http://aip.scitation.org/journal/rsi</t>
-  </si>
-  <si>
     <t>Hybrid</t>
   </si>
   <si>
@@ -225,9 +187,6 @@
     <t>Journal of Vacuum Science &amp; Technology B</t>
   </si>
   <si>
-    <t xml:space="preserve">LIA: Pacific International Conference on Applications of Lasers and Optics  </t>
-  </si>
-  <si>
     <t>Surface Science Spectra</t>
   </si>
   <si>
@@ -297,56 +256,110 @@
     <t>0031-921X</t>
   </si>
   <si>
-    <t>https://aip.scitation.org/toc/apc/current</t>
-  </si>
-  <si>
-    <t>https://aapt.scitation.org/toc/ajp/current</t>
-  </si>
-  <si>
-    <t>https://avs.scitation.org/toc/bip/current</t>
-  </si>
-  <si>
-    <t>https://cps.scitation.org/toc/cjp/current</t>
-  </si>
-  <si>
-    <t>https://aip.scitation.org/toc/rse/current</t>
-  </si>
-  <si>
-    <t>https://sor.scitation.org/toc/jor/current</t>
-  </si>
-  <si>
-    <t>https://avs.scitation.org/toc/jva/current</t>
-  </si>
-  <si>
-    <t>https://avs.scitation.org/toc/jvb/current</t>
-  </si>
-  <si>
-    <t>https://lia.scitation.org/toc/pic/current</t>
-  </si>
-  <si>
-    <t>https://avs.scitation.org/toc/sss/current</t>
-  </si>
-  <si>
-    <t>https://asa.scitation.org/toc/jas/current</t>
-  </si>
-  <si>
-    <t>https://aapt.scitation.org/toc/pte/current</t>
-  </si>
-  <si>
     <t>2639-0213</t>
   </si>
   <si>
     <t>AVS Quantum Science</t>
   </si>
   <si>
-    <t>https://avs.scitation.org/journal/aqs</t>
+    <t>https://pubs.aip.org/aip/acp</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aapt/ajp</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aip/apl</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aip/apr</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/avs/aqs</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/avs/bip</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aip/bmf</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aip/cha</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/cps/cjcp</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aip/jap</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aip/jcp</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/lia/jla</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aip/jmp</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aip/jpr</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aip/jrse</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/sor/jor</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/asa/jasa</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/avs/jva</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/avs/jvb</t>
+  </si>
+  <si>
+    <t>LIA Conference Proceedings</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/lia/liacp</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aip/ltp</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aip/pof</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aip/pop</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aip/rsi</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/avs/sss</t>
+  </si>
+  <si>
+    <t>https://pubs.aip.org/aapt/pte</t>
+  </si>
+  <si>
+    <t>borttagen ingår ej</t>
+  </si>
+  <si>
+    <t>URL-ändring (byte av plattform)</t>
+  </si>
+  <si>
+    <t>URL-ändring (byte av plattform), namnändring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +373,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -426,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -434,11 +454,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -459,23 +498,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -490,19 +512,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G27" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:G27"/>
-  <sortState ref="A2:G27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G27">
     <sortCondition ref="D1:D27"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CC License options"/>
+    <tableColumn id="8" xr3:uid="{9F547D6B-43D7-4804-A5F2-5BC1C17D5722}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,10 +793,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -781,12 +806,12 @@
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="39.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,54 +833,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
+        <v>47</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
+      <c r="E3" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -863,22 +897,25 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -888,61 +925,70 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
+      <c r="E5" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>106</v>
+        <v>79</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -953,16 +999,19 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -970,45 +1019,51 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
+      <c r="E9" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>95</v>
+        <v>50</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1016,22 +1071,25 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
-        <v>39</v>
+      <c r="E11" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1039,22 +1097,25 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
-        <v>40</v>
+      <c r="E12" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1064,17 +1125,20 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
-        <v>41</v>
+      <c r="E13" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1082,22 +1146,25 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" t="s">
-        <v>42</v>
+      <c r="E14" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1105,160 +1172,181 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E20" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
         <v>99</v>
       </c>
-      <c r="F20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1266,22 +1354,25 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" t="s">
-        <v>44</v>
+      <c r="E22" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1289,22 +1380,25 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="E23" t="s">
-        <v>45</v>
+      <c r="E23" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
@@ -1312,22 +1406,25 @@
         <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>46</v>
+      <c r="E24" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1335,73 +1432,82 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
-        <v>47</v>
+      <c r="E25" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" t="s">
-        <v>101</v>
+        <v>55</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D23 D25:D27">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_aip.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_aip.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_2B03468B9C724D3C580A46961041475BE368F8E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05D34F70-C188-45BD-8BF9-608F2A74DBE9}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_2B03468B9C724D3C580A46961041475BE368F8E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FE48356-559D-430E-96D2-C31777AE4A11}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -256,12 +256,6 @@
     <t>0031-921X</t>
   </si>
   <si>
-    <t>2639-0213</t>
-  </si>
-  <si>
-    <t>AVS Quantum Science</t>
-  </si>
-  <si>
     <t>https://pubs.aip.org/aip/acp</t>
   </si>
   <si>
@@ -274,9 +268,6 @@
     <t>https://pubs.aip.org/aip/apr</t>
   </si>
   <si>
-    <t>https://pubs.aip.org/avs/aqs</t>
-  </si>
-  <si>
     <t>https://pubs.aip.org/avs/bip</t>
   </si>
   <si>
@@ -322,9 +313,6 @@
     <t>LIA Conference Proceedings</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>https://pubs.aip.org/lia/liacp</t>
   </si>
   <si>
@@ -344,22 +332,13 @@
   </si>
   <si>
     <t>https://pubs.aip.org/aapt/pte</t>
-  </si>
-  <si>
-    <t>borttagen ingår ej</t>
-  </si>
-  <si>
-    <t>URL-ändring (byte av plattform)</t>
-  </si>
-  <si>
-    <t>URL-ändring (byte av plattform), namnändring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,26 +354,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -446,38 +412,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -498,6 +445,23 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -512,12 +476,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G27">
-    <sortCondition ref="D1:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G26" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:G26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
+    <sortCondition ref="D1:D26"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISSN Electronic"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISSN Print"/>
@@ -525,7 +489,6 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JournalURL"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Publishing model"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CC License options"/>
-    <tableColumn id="8" xr3:uid="{9F547D6B-43D7-4804-A5F2-5BC1C17D5722}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -794,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,7 +774,7 @@
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,11 +796,8 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -850,8 +810,8 @@
       <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>80</v>
+      <c r="E2" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -859,11 +819,8 @@
       <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -876,8 +833,8 @@
       <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>81</v>
+      <c r="E3" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -885,11 +842,8 @@
       <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -903,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
@@ -911,11 +865,8 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -925,589 +876,499 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>83</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D20" t="s">
         <v>96</v>
       </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="E20" t="s">
         <v>97</v>
       </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="F26" t="s">
         <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
       </c>
-      <c r="H26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s">
-        <v>109</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D23 D25:D27">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="D24:D26 D2:D22">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
